--- a/wtt/yjn2/yjn2_cfd_rib_submit.xlsx
+++ b/wtt/yjn2/yjn2_cfd_rib_submit.xlsx
@@ -190,10 +190,10 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -289,6 +289,35 @@
         <v>0.0071</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>1.0129</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-0.2624</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>-0.3446</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.5218</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>-0.2768</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>-0.0171</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>-0.5089</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.0096</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -363,36 +392,65 @@
         <v>0.0171</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>1.0182</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-0.2427</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>-0.4945</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.4098</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>-0.2509</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>-0.0148</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>-0.3916</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
